--- a/Documents/Test Plan.xlsx
+++ b/Documents/Test Plan.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Project Flow Documents\Project Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Revision History" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Plan V.1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan V.2.0" sheetId="4" r:id="rId2"/>
+    <sheet name="Revision History" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="187">
   <si>
     <t>Test Plan</t>
   </si>
@@ -183,12 +179,417 @@
   <si>
     <t>1.0</t>
   </si>
+  <si>
+    <t>Test Writer: Colten Nye</t>
+  </si>
+  <si>
+    <t>Test Case Name:</t>
+  </si>
+  <si>
+    <t>Sampling Rate Test</t>
+  </si>
+  <si>
+    <t>Test ID:</t>
+  </si>
+  <si>
+    <t>SRT-01</t>
+  </si>
+  <si>
+    <t>Interrupt logging Test</t>
+  </si>
+  <si>
+    <t>ILT-01</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Verifies the sampling rate at which data from sensors is being stored on the SD Card</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>White     Black X</t>
+  </si>
+  <si>
+    <t>Verifies if triggering a measurement would interrupt data logging process.</t>
+  </si>
+  <si>
+    <t>Tester Information</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Hardware Version</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Setup:</t>
+  </si>
+  <si>
+    <t>An I2C or analog sensor, sensor platform main board, web application GUI installed on the computer system</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set a sensor to poll at 100/1000/10000 samples-per-second. </t>
+  </si>
+  <si>
+    <t>Set a sensor to trigger a measurement on some well defined condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin logging for some arbitrary amount of time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Begin logging data.</t>
+  </si>
+  <si>
+    <t>Using the timestamps on the records, calculate actual samples-per-second.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enact the triggering condition.</t>
+  </si>
+  <si>
+    <t>Overall test result:</t>
+  </si>
+  <si>
+    <t>Sensor Read Error Test</t>
+  </si>
+  <si>
+    <t>SRET-01</t>
+  </si>
+  <si>
+    <t>IOBR-01</t>
+  </si>
+  <si>
+    <t>Verifies if the system responds correctly to an eject request.</t>
+  </si>
+  <si>
+    <t>Sensor is disconnected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the device to be logging at a high rate (IO is constantly busy) </t>
+  </si>
+  <si>
+    <t>Connect an unsupported sensor type</t>
+  </si>
+  <si>
+    <t>Begin logging data</t>
+  </si>
+  <si>
+    <t>Multiple devices responding to TWI address</t>
+  </si>
+  <si>
+    <t>Indicate an eject request.</t>
+  </si>
+  <si>
+    <t>Storage device is missing / corrupted</t>
+  </si>
+  <si>
+    <t>If indicated, remove storage device.</t>
+  </si>
+  <si>
+    <t>Sensor count Test</t>
+  </si>
+  <si>
+    <t>SCT-01</t>
+  </si>
+  <si>
+    <t>Maximum Records Test</t>
+  </si>
+  <si>
+    <t>MRT-01</t>
+  </si>
+  <si>
+    <t>Verifies the system performance at maximum polling frequency.</t>
+  </si>
+  <si>
+    <t>Verifies if the device stores valid maximum of data.</t>
+  </si>
+  <si>
+    <t>Configure the device with 4 sensors</t>
+  </si>
+  <si>
+    <t>Configure the device with an I2C or analog sensor(s) at a valid polling rate (preferably as high as possible)</t>
+  </si>
+  <si>
+    <t>Set the polling rate at maximum for all the sensors</t>
+  </si>
+  <si>
+    <t>Begin logging data until there should be at least 10/100/1000 million records.</t>
+  </si>
+  <si>
+    <t>Begin logging data for some arbitrarily short amount of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat the above steps for 8 and 16 I2C sensors </t>
+  </si>
+  <si>
+    <t>Over Voltage Test</t>
+  </si>
+  <si>
+    <t>OVT-01</t>
+  </si>
+  <si>
+    <t>Under Voltage Test</t>
+  </si>
+  <si>
+    <t>Verifies device's performance under over voltage condition.</t>
+  </si>
+  <si>
+    <t>Verifies device's performance during under voltage condition.</t>
+  </si>
+  <si>
+    <t>An I2C or analog sensor, sensor platform main board, web application GUI installed on the computer system, adjustable DC power supply</t>
+  </si>
+  <si>
+    <t>Power the device using an adjustable voltage source initially set to the device's ideal supply voltage (3.3V).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the current limit just before the maximum current handling of the device, as determined by designers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Slowly increase the voltage to 150% of the ideal supply voltage.</t>
+  </si>
+  <si>
+    <t>Slowly decrease the voltage to 0V.</t>
+  </si>
+  <si>
+    <t>Max Frequency Test</t>
+  </si>
+  <si>
+    <t>MFT-01</t>
+  </si>
+  <si>
+    <t>Verifies if the device stores valid data at maximum frequency.</t>
+  </si>
+  <si>
+    <t>Main Board Unit Test</t>
+  </si>
+  <si>
+    <t>MBUT-01</t>
+  </si>
+  <si>
+    <t>Visually inspect the board</t>
+  </si>
+  <si>
+    <t>Verify connections before and after soldering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify clock signal presence </t>
+  </si>
+  <si>
+    <t>Verify clock signal frequency</t>
+  </si>
+  <si>
+    <t>Vias, pads, component footprints, and routings looks right and similar to EAGLE PCB layout</t>
+  </si>
+  <si>
+    <t>Verify power levels at test points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16MHz clock frequency </t>
+  </si>
+  <si>
+    <t>Write and upload a "Hello World!"/Blinking LED program to test the basic functionality of the board</t>
+  </si>
+  <si>
+    <t>Expect to see the target LED blinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3V operating voltage </t>
+  </si>
+  <si>
+    <t>Sensor Boards Unit Test</t>
+  </si>
+  <si>
+    <t>Verify connections after soldering under microscope</t>
+  </si>
+  <si>
+    <t>No short paths, no disconnected or lose connection</t>
+  </si>
+  <si>
+    <t>Main board, adjustable power supply, digital multi-meter, probes, microscope</t>
+  </si>
+  <si>
+    <t>SBUT-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating voltage for: accelerometer =  3.3V  VOC board = 5V </t>
+  </si>
+  <si>
+    <t>Connect the sensor boards to a “known good” device such as Arduino, and verify readings, etc.</t>
+  </si>
+  <si>
+    <t>Expect valid data</t>
+  </si>
+  <si>
+    <t>VOC and accelerometer sensor boards, adjustable power supply, digital multi-meter, probes, microscope, Arduino board</t>
+  </si>
+  <si>
+    <t>Verifies the basic functionality of the main board</t>
+  </si>
+  <si>
+    <t>Verifies the basic functionality of the sensor boards</t>
+  </si>
+  <si>
+    <t>MAIT-01</t>
+  </si>
+  <si>
+    <t>Verifies the interface between the main board and the accelerometer</t>
+  </si>
+  <si>
+    <t>Connect the accelerometer to I2C header on the main board</t>
+  </si>
+  <si>
+    <t>Power up the main board</t>
+  </si>
+  <si>
+    <t>Configure the I2C sensor at a valid sampling rate in the GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin logging data </t>
+  </si>
+  <si>
+    <t>Verify the recorded data against "known good" values collected by Arduino board</t>
+  </si>
+  <si>
+    <t>The recorded data should be as valid as collected data by Arduino</t>
+  </si>
+  <si>
+    <t>Verify the recorded data against "known good" values collected by an Arduino board</t>
+  </si>
+  <si>
+    <t>The recorded data should be similar to collected data by Arduino</t>
+  </si>
+  <si>
+    <t>MVIT-01</t>
+  </si>
+  <si>
+    <t>Verifies the interface between the main board and the VOC sensor board</t>
+  </si>
+  <si>
+    <t>Accelerometer sensor board, main board, web application GUI installed on the computer system</t>
+  </si>
+  <si>
+    <t>VOC sensor board, main board, web application GUI installed on the computer system</t>
+  </si>
+  <si>
+    <t>Connect the VOC to one of the analog headers on the main board</t>
+  </si>
+  <si>
+    <t>Configure the analog sensor at a valid sampling rate in the GUI</t>
+  </si>
+  <si>
+    <t>Attempt to read from bad I2C addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the device with I2C sensor at a valid sampling rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the device with analog sensor at a valid sampling rate </t>
+  </si>
+  <si>
+    <t>Remove the sensor while it is sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the device with I2C or analog sensor at a valid sampling rate </t>
+  </si>
+  <si>
+    <t>Remove the power which sensor is sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor and Power Removal Test </t>
+  </si>
+  <si>
+    <t>SPRT-01</t>
+  </si>
+  <si>
+    <t>Verifies device's performance after sensor or power removal while the system is running</t>
+  </si>
+  <si>
+    <t>An I2C and analog sensor, sensor platform main board, web application GUI installed on the computer system</t>
+  </si>
+  <si>
+    <t>Data should be stored up to the time that sensor was connected, without any data loss.</t>
+  </si>
+  <si>
+    <t>Data should be stored up to the time that power was connected, without any data loss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ID </t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>UVT-01</t>
+  </si>
+  <si>
+    <t>Test Writer:  Golriz Sedaghat</t>
+  </si>
+  <si>
+    <t>Test Writer: Golriz Sedaghat</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Golriz Sedaghat</t>
+  </si>
+  <si>
+    <t>Modified the structure of the previous version and added more test cases based on the test plan overview written by Steve Peirce</t>
+  </si>
+  <si>
+    <t>Table of test cases</t>
+  </si>
+  <si>
+    <t>Main board and accelerometer  integration test</t>
+  </si>
+  <si>
+    <t>Main board and VOC board integration test</t>
+  </si>
+  <si>
+    <t>Interrupt Logging Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +747,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +940,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -673,6 +1086,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -774,6 +1499,168 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1088,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1098,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,10 +2348,3118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B3:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>11</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>12</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>13</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="2:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="K22" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="K23" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="69"/>
+      <c r="M23" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="72"/>
+    </row>
+    <row r="24" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="K24" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="69"/>
+      <c r="M24" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="69"/>
+      <c r="P24" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="68"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="K25" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
+      <c r="K26" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="69"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="K27" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="69"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="72"/>
+    </row>
+    <row r="28" spans="2:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="K28" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="82"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="24"/>
+      <c r="K30" s="23">
+        <v>1</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
+        <v>2</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="24"/>
+      <c r="K31" s="23">
+        <v>2</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="23">
+        <v>3</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="24"/>
+      <c r="K32" s="23">
+        <v>3</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="23">
+        <v>4</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="24"/>
+      <c r="K33" s="23">
+        <v>4</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="23">
+        <v>5</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="24"/>
+      <c r="K34" s="23">
+        <v>5</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" s="37"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="2:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
+        <v>6</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="24"/>
+      <c r="K35" s="23">
+        <v>6</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="K36" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="59"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="78"/>
+      <c r="K39" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="78"/>
+    </row>
+    <row r="40" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="72"/>
+      <c r="K40" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="69"/>
+      <c r="M40" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="N40" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="69"/>
+      <c r="P40" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q40" s="72"/>
+    </row>
+    <row r="41" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="69"/>
+      <c r="G41" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="68"/>
+      <c r="K41" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="69"/>
+      <c r="M41" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="69"/>
+      <c r="P41" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="68"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
+      <c r="K42" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="68"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="K43" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="69"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="70"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="72"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="K44" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="69"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" s="70"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="72"/>
+    </row>
+    <row r="45" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
+      <c r="K45" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="69"/>
+      <c r="M45" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="75"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="40">
+        <v>1</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="K47" s="40">
+        <v>1</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="42"/>
+    </row>
+    <row r="48" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="40">
+        <v>2</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="62"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="K48" s="40">
+        <v>2</v>
+      </c>
+      <c r="L48" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="M48" s="62"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
+    </row>
+    <row r="49" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="23">
+        <v>3</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="24"/>
+      <c r="K49" s="23">
+        <v>3</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M49" s="62"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="24"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="23">
+        <v>4</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="24"/>
+      <c r="K50" s="23">
+        <v>4</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M50" s="62"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="24"/>
+    </row>
+    <row r="51" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23">
+        <v>5</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="24"/>
+      <c r="K51" s="23">
+        <v>5</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M51" s="63"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="24"/>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="K52" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="78"/>
+      <c r="K55" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="78"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="69"/>
+      <c r="G56" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="72"/>
+      <c r="K56" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" s="69"/>
+      <c r="M56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="69"/>
+      <c r="P56" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="72"/>
+    </row>
+    <row r="57" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="69"/>
+      <c r="G57" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="68"/>
+      <c r="K57" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L57" s="69"/>
+      <c r="M57" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" s="69"/>
+      <c r="P57" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q57" s="68"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="68"/>
+      <c r="K58" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="68"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="72"/>
+      <c r="K59" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="69"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="70"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="72"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
+      <c r="K60" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="69"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="70"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="72"/>
+    </row>
+    <row r="61" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
+      <c r="K61" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="69"/>
+      <c r="M61" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="82"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N62" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O62" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B63" s="23">
+        <v>1</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="24"/>
+      <c r="K63" s="23">
+        <v>1</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M63" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="24"/>
+    </row>
+    <row r="64" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="23">
+        <v>2</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="62"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="24"/>
+      <c r="K64" s="23">
+        <v>2</v>
+      </c>
+      <c r="L64" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M64" s="62"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="24"/>
+    </row>
+    <row r="65" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B65" s="23">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="63"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="24"/>
+      <c r="K65" s="23">
+        <v>3</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" s="63"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="24"/>
+    </row>
+    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="K66" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L66" s="59"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="27"/>
+    </row>
+    <row r="68" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="78"/>
+      <c r="K69" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="78"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="69"/>
+      <c r="G70" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="72"/>
+      <c r="K70" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L70" s="69"/>
+      <c r="M70" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="69"/>
+      <c r="P70" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q70" s="72"/>
+    </row>
+    <row r="71" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="69"/>
+      <c r="G71" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="68"/>
+      <c r="K71" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L71" s="69"/>
+      <c r="M71" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N71" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O71" s="69"/>
+      <c r="P71" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q71" s="68"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="68"/>
+      <c r="K72" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="68"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="72"/>
+      <c r="K73" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L73" s="69"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O73" s="70"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="72"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="72"/>
+      <c r="K74" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L74" s="69"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O74" s="70"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="72"/>
+    </row>
+    <row r="75" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="75"/>
+      <c r="K75" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" s="69"/>
+      <c r="M75" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="75"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M76" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N76" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O76" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20">
+        <v>1</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="K77" s="23">
+        <v>1</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M77" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="24"/>
+    </row>
+    <row r="78" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" s="20">
+        <v>2</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="62"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="K78" s="23">
+        <v>2</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" s="62"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="24"/>
+    </row>
+    <row r="79" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B79" s="20">
+        <v>3</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="62"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="K79" s="23">
+        <v>3</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M79" s="62"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="24"/>
+    </row>
+    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="20">
+        <v>4</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="K80" s="23">
+        <v>4</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M80" s="63"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="31"/>
+    </row>
+    <row r="81" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="20">
+        <v>5</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="K81" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L81" s="59"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="27"/>
+    </row>
+    <row r="82" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="59"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="78"/>
+      <c r="K85" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="78"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="69"/>
+      <c r="D86" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="69"/>
+      <c r="G86" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" s="72"/>
+      <c r="K86" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L86" s="69"/>
+      <c r="M86" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N86" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86" s="69"/>
+      <c r="P86" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q86" s="72"/>
+    </row>
+    <row r="87" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B87" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="69"/>
+      <c r="D87" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="69"/>
+      <c r="G87" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" s="68"/>
+      <c r="K87" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L87" s="69"/>
+      <c r="M87" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="N87" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O87" s="69"/>
+      <c r="P87" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q87" s="68"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="68"/>
+      <c r="K88" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="68"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="69"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="70"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="72"/>
+      <c r="K89" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L89" s="69"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O89" s="70"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="72"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="69"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="70"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="72"/>
+      <c r="K90" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L90" s="69"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O90" s="70"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="72"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="69"/>
+      <c r="D91" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="75"/>
+      <c r="K91" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L91" s="69"/>
+      <c r="M91" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="75"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L92" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M92" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N92" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O92" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P92" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="B93" s="23">
+        <v>1</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="24"/>
+      <c r="K93" s="23">
+        <v>1</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M93" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="24"/>
+    </row>
+    <row r="94" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B94" s="23">
+        <v>2</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="62"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="24"/>
+      <c r="K94" s="23">
+        <v>2</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M94" s="62"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="24"/>
+    </row>
+    <row r="95" spans="2:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="23">
+        <v>3</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="62"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="24"/>
+      <c r="K95" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L95" s="59"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="27"/>
+    </row>
+    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="23">
+        <v>4</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="63"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="31"/>
+    </row>
+    <row r="97" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+    </row>
+    <row r="99" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="78"/>
+      <c r="K100" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="78"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="69"/>
+      <c r="D101" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="69"/>
+      <c r="G101" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="72"/>
+      <c r="K101" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L101" s="69"/>
+      <c r="M101" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N101" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O101" s="69"/>
+      <c r="P101" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q101" s="72"/>
+    </row>
+    <row r="102" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="69"/>
+      <c r="D102" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="69"/>
+      <c r="G102" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="68"/>
+      <c r="K102" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L102" s="69"/>
+      <c r="M102" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N102" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O102" s="69"/>
+      <c r="P102" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q102" s="68"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="68"/>
+      <c r="K103" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
+      <c r="O103" s="67"/>
+      <c r="P103" s="67"/>
+      <c r="Q103" s="68"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="69"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="70"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L104" s="69"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O104" s="70"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="72"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="69"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="72"/>
+      <c r="K105" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L105" s="69"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O105" s="70"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="72"/>
+    </row>
+    <row r="106" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="69"/>
+      <c r="D106" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="75"/>
+      <c r="K106" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L106" s="69"/>
+      <c r="M106" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="75"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L107" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M107" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N107" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O107" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P107" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q107" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="B108" s="23">
+        <v>1</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="24"/>
+      <c r="K108" s="23">
+        <v>1</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M108" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="24"/>
+    </row>
+    <row r="109" spans="2:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="B109" s="32">
+        <v>2</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="62"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
+      <c r="K109" s="32">
+        <v>2</v>
+      </c>
+      <c r="L109" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="M109" s="62"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="31"/>
+    </row>
+    <row r="110" spans="2:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="23">
+        <v>3</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="62"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="24"/>
+      <c r="K110" s="23">
+        <v>3</v>
+      </c>
+      <c r="L110" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M110" s="62"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="24"/>
+    </row>
+    <row r="111" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B111" s="23">
+        <v>4</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="63"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="24"/>
+      <c r="K111" s="23">
+        <v>4</v>
+      </c>
+      <c r="L111" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M111" s="63"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="24"/>
+    </row>
+    <row r="112" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="59"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="K112" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L112" s="59"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
+      <c r="Q112" s="27"/>
+    </row>
+    <row r="114" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="78"/>
+      <c r="K115" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="78"/>
+    </row>
+    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="69"/>
+      <c r="D116" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="69"/>
+      <c r="G116" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="H116" s="72"/>
+      <c r="K116" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L116" s="69"/>
+      <c r="M116" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="N116" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O116" s="69"/>
+      <c r="P116" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q116" s="72"/>
+    </row>
+    <row r="117" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B117" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="69"/>
+      <c r="D117" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="69"/>
+      <c r="G117" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="68"/>
+      <c r="K117" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L117" s="69"/>
+      <c r="M117" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N117" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O117" s="69"/>
+      <c r="P117" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q117" s="68"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="68"/>
+      <c r="K118" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L118" s="67"/>
+      <c r="M118" s="67"/>
+      <c r="N118" s="67"/>
+      <c r="O118" s="67"/>
+      <c r="P118" s="67"/>
+      <c r="Q118" s="68"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="69"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="70"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="72"/>
+      <c r="K119" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L119" s="69"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O119" s="70"/>
+      <c r="P119" s="71"/>
+      <c r="Q119" s="72"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="69"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" s="70"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="72"/>
+      <c r="K120" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L120" s="69"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O120" s="70"/>
+      <c r="P120" s="71"/>
+      <c r="Q120" s="72"/>
+    </row>
+    <row r="121" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="69"/>
+      <c r="D121" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="75"/>
+      <c r="K121" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L121" s="69"/>
+      <c r="M121" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="N121" s="74"/>
+      <c r="O121" s="74"/>
+      <c r="P121" s="74"/>
+      <c r="Q121" s="75"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E122" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K122" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L122" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M122" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N122" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O122" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P122" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q122" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B123" s="23">
+        <v>1</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="24"/>
+      <c r="K123" s="23">
+        <v>1</v>
+      </c>
+      <c r="L123" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M123" s="37"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="24"/>
+    </row>
+    <row r="124" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B124" s="23">
+        <v>2</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="62"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="24"/>
+      <c r="K124" s="32">
+        <v>2</v>
+      </c>
+      <c r="L124" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M124" s="37"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="30"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="31"/>
+    </row>
+    <row r="125" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="59"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
+      <c r="K125" s="23">
+        <v>3</v>
+      </c>
+      <c r="L125" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="24"/>
+    </row>
+    <row r="126" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="23">
+        <v>4</v>
+      </c>
+      <c r="L126" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M126" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="24"/>
+    </row>
+    <row r="127" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="K127" s="32">
+        <v>5</v>
+      </c>
+      <c r="L127" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="24"/>
+    </row>
+    <row r="128" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="K128" s="23">
+        <v>6</v>
+      </c>
+      <c r="L128" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="24"/>
+    </row>
+    <row r="129" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="D129" s="44"/>
+      <c r="K129" s="23">
+        <v>7</v>
+      </c>
+      <c r="L129" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M129" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="24"/>
+    </row>
+    <row r="130" spans="3:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="44"/>
+      <c r="K130" s="32">
+        <v>8</v>
+      </c>
+      <c r="L130" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="24"/>
+    </row>
+    <row r="131" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D131" s="44"/>
+      <c r="K131" s="23">
+        <v>9</v>
+      </c>
+      <c r="L131" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="24"/>
+    </row>
+    <row r="132" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="D132" s="44"/>
+      <c r="K132" s="23">
+        <v>10</v>
+      </c>
+      <c r="L132" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M132" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="24"/>
+    </row>
+    <row r="133" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="44"/>
+      <c r="K133" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L133" s="59"/>
+      <c r="M133" s="60"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="27"/>
+    </row>
+    <row r="134" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D134" s="44"/>
+    </row>
+    <row r="135" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D135" s="44"/>
+    </row>
+    <row r="137" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C137" s="44"/>
+    </row>
+    <row r="138" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C138" s="44"/>
+    </row>
+    <row r="139" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C139" s="44"/>
+    </row>
+    <row r="140" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C140" s="44"/>
+    </row>
+    <row r="141" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C141" s="44"/>
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C142" s="44"/>
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C143" s="44"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C144" s="44"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C145" s="44"/>
+    </row>
+    <row r="146" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C146" s="44"/>
+    </row>
+    <row r="147" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C147" s="44"/>
+    </row>
+    <row r="148" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C148" s="44"/>
+    </row>
+    <row r="149" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C149" s="44"/>
+    </row>
+    <row r="150" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C150" s="44"/>
+    </row>
+    <row r="151" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C151" s="44"/>
+    </row>
+    <row r="152" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C152" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="237">
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:Q75"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="M77:M80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:Q91"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="K133:M133"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="O119:Q119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="O120:Q120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:Q121"/>
+    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,6 +5500,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42111</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
